--- a/03_PizzaShop/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
+++ b/03_PizzaShop/Docs/Lab03/Lab03_WBT_TCs_Form.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AB247A-1140-42F1-848D-2DAFFFDB9FA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8915DDDF-CE4B-45C8-B2B4-EE13119F50EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statement" sheetId="1" r:id="rId1"/>
@@ -1394,6 +1394,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1406,77 +1409,212 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1499,12 +1637,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1520,9 +1652,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1530,144 +1659,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2132,7 +2132,7 @@
   </sheetPr>
   <dimension ref="B1:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
@@ -2143,12 +2143,12 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B1" s="12"/>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" s="40" t="s">
@@ -2277,8 +2277,8 @@
   </sheetPr>
   <dimension ref="B1:T24"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2289,73 +2289,73 @@
   <sheetData>
     <row r="1" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B1" s="12"/>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="46" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="49"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="47"/>
+      <c r="K3" s="48"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="44"/>
       <c r="F6" s="32"/>
       <c r="G6" s="32"/>
-      <c r="I6" s="41" t="s">
+      <c r="I6" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="Q6" s="41" t="s">
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="Q6" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="43"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
       <c r="F8" s="34"/>
       <c r="G8" s="34"/>
       <c r="I8" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="Q8" s="46" t="s">
+      <c r="Q8" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
+      <c r="R8" s="59"/>
+      <c r="S8" s="59"/>
       <c r="T8" s="35">
         <v>5</v>
       </c>
@@ -2364,19 +2364,19 @@
       <c r="B9" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="45" t="s">
+      <c r="C9" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
       <c r="F9" s="37"/>
       <c r="G9" s="37"/>
       <c r="I9" s="39"/>
-      <c r="Q9" s="46" t="s">
+      <c r="Q9" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="R9" s="46"/>
-      <c r="S9" s="46"/>
+      <c r="R9" s="59"/>
+      <c r="S9" s="59"/>
       <c r="T9" s="35">
         <v>5</v>
       </c>
@@ -2385,11 +2385,11 @@
       <c r="B10" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="45" t="s">
+      <c r="C10" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
       <c r="F10" s="37"/>
       <c r="G10" s="37"/>
       <c r="I10" s="50" t="s">
@@ -2401,13 +2401,13 @@
       <c r="M10" s="51"/>
       <c r="N10" s="51"/>
       <c r="O10" s="52"/>
-      <c r="Q10" s="46" t="s">
+      <c r="Q10" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="R10" s="46" t="s">
+      <c r="R10" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="S10" s="46"/>
+      <c r="S10" s="59"/>
       <c r="T10" s="35">
         <v>5</v>
       </c>
@@ -2416,11 +2416,11 @@
       <c r="B11" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
       <c r="F11" s="37"/>
       <c r="G11" s="37"/>
       <c r="I11" s="53"/>
@@ -2435,11 +2435,11 @@
       <c r="B12" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="45" t="s">
+      <c r="C12" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
       <c r="F12" s="37"/>
       <c r="G12" s="37"/>
       <c r="I12" s="53"/>
@@ -2454,11 +2454,11 @@
       <c r="B13" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="45" t="s">
+      <c r="C13" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
       <c r="F13" s="37"/>
       <c r="G13" s="37"/>
       <c r="I13" s="53"/>
@@ -2468,22 +2468,22 @@
       <c r="M13" s="54"/>
       <c r="N13" s="54"/>
       <c r="O13" s="55"/>
-      <c r="Q13" s="41" t="s">
+      <c r="Q13" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="45" t="s">
+      <c r="C14" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
       <c r="F14" s="37"/>
       <c r="G14" s="37"/>
       <c r="I14" s="53"/>
@@ -2505,11 +2505,11 @@
       <c r="Q15" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="R15" s="59" t="s">
+      <c r="R15" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="S15" s="59"/>
-      <c r="T15" s="59"/>
+      <c r="S15" s="60"/>
+      <c r="T15" s="60"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="I16" s="53"/>
@@ -2522,11 +2522,11 @@
       <c r="Q16" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="R16" s="44" t="s">
+      <c r="R16" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="S16" s="44"/>
-      <c r="T16" s="44"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="45"/>
     </row>
     <row r="17" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I17" s="53"/>
@@ -2539,11 +2539,11 @@
       <c r="Q17" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="R17" s="44" t="s">
+      <c r="R17" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="S17" s="44"/>
-      <c r="T17" s="44"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="45"/>
     </row>
     <row r="18" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I18" s="53"/>
@@ -2556,11 +2556,11 @@
       <c r="Q18" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="R18" s="44" t="s">
+      <c r="R18" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="S18" s="44"/>
-      <c r="T18" s="44"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="45"/>
     </row>
     <row r="19" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I19" s="53"/>
@@ -2573,11 +2573,11 @@
       <c r="Q19" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="R19" s="44" t="s">
+      <c r="R19" s="45" t="s">
         <v>88</v>
       </c>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="45"/>
     </row>
     <row r="20" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I20" s="53"/>
@@ -2590,11 +2590,11 @@
       <c r="Q20" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="R20" s="44" t="s">
+      <c r="R20" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="S20" s="44"/>
-      <c r="T20" s="44"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
     </row>
     <row r="21" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I21" s="53"/>
@@ -2607,11 +2607,11 @@
       <c r="Q21" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="R21" s="44" t="s">
+      <c r="R21" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="S21" s="44"/>
-      <c r="T21" s="44"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="45"/>
     </row>
     <row r="22" spans="9:20" x14ac:dyDescent="0.25">
       <c r="I22" s="53"/>
@@ -2642,6 +2642,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="R18:T18"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="R16:T16"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="Q13:T13"/>
+    <mergeCell ref="C14:E14"/>
     <mergeCell ref="D1:I1"/>
     <mergeCell ref="R20:T20"/>
     <mergeCell ref="R21:T21"/>
@@ -2658,14 +2666,6 @@
     <mergeCell ref="Q6:T6"/>
     <mergeCell ref="R17:T17"/>
     <mergeCell ref="R19:T19"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="R16:T16"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="Q13:T13"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="R18:T18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2709,173 +2709,173 @@
   <sheetData>
     <row r="1" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B1" s="12"/>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.25">
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="49"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="48"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.25">
       <c r="B5" s="11"/>
     </row>
     <row r="6" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="66" t="s">
+      <c r="B6" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="108" t="s">
+      <c r="C6" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="109"/>
-      <c r="E6" s="67" t="s">
+      <c r="D6" s="74"/>
+      <c r="E6" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="66" t="s">
+      <c r="F6" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="66"/>
-      <c r="N6" s="66"/>
-      <c r="O6" s="66"/>
-      <c r="P6" s="66"/>
-      <c r="Q6" s="66"/>
-      <c r="R6" s="66"/>
-      <c r="S6" s="66"/>
-      <c r="T6" s="66"/>
-      <c r="U6" s="66"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="66"/>
-      <c r="X6" s="66"/>
-      <c r="Y6" s="66"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="66"/>
-      <c r="AB6" s="66"/>
-      <c r="AC6" s="66"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
     </row>
     <row r="7" spans="2:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="66"/>
-      <c r="C7" s="110"/>
-      <c r="D7" s="111"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="63" t="s">
+      <c r="B7" s="72"/>
+      <c r="C7" s="75"/>
+      <c r="D7" s="76"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="62" t="s">
+      <c r="G7" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="62"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="62"/>
-      <c r="N7" s="62"/>
-      <c r="O7" s="62"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="64" t="s">
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="80"/>
+      <c r="K7" s="80"/>
+      <c r="L7" s="80"/>
+      <c r="M7" s="80"/>
+      <c r="N7" s="80"/>
+      <c r="O7" s="80"/>
+      <c r="P7" s="80"/>
+      <c r="Q7" s="81" t="s">
         <v>63</v>
       </c>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="65" t="s">
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="81"/>
+      <c r="U7" s="81"/>
+      <c r="V7" s="81"/>
+      <c r="W7" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="65"/>
-      <c r="AB7" s="65"/>
-      <c r="AC7" s="65"/>
+      <c r="X7" s="70"/>
+      <c r="Y7" s="70"/>
+      <c r="Z7" s="70"/>
+      <c r="AA7" s="70"/>
+      <c r="AB7" s="70"/>
+      <c r="AC7" s="70"/>
     </row>
     <row r="8" spans="2:29" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="66"/>
-      <c r="C8" s="60" t="s">
+      <c r="B8" s="72"/>
+      <c r="C8" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="82" t="s">
         <v>90</v>
       </c>
-      <c r="E8" s="60" t="s">
+      <c r="E8" s="82" t="s">
         <v>91</v>
       </c>
-      <c r="F8" s="63"/>
-      <c r="G8" s="62" t="s">
+      <c r="F8" s="79"/>
+      <c r="G8" s="80" t="s">
         <v>92</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62" t="s">
+      <c r="H8" s="80"/>
+      <c r="I8" s="80" t="s">
         <v>93</v>
       </c>
-      <c r="J8" s="62"/>
-      <c r="K8" s="62" t="s">
+      <c r="J8" s="80"/>
+      <c r="K8" s="80" t="s">
         <v>94</v>
       </c>
-      <c r="L8" s="62"/>
-      <c r="M8" s="112" t="s">
+      <c r="L8" s="80"/>
+      <c r="M8" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="N8" s="113"/>
-      <c r="O8" s="113"/>
-      <c r="P8" s="114"/>
-      <c r="Q8" s="64" t="s">
+      <c r="N8" s="62"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="R8" s="64" t="s">
+      <c r="R8" s="81" t="s">
         <v>54</v>
       </c>
-      <c r="S8" s="64" t="s">
+      <c r="S8" s="81" t="s">
         <v>55</v>
       </c>
-      <c r="T8" s="115" t="s">
+      <c r="T8" s="84" t="s">
         <v>87</v>
       </c>
-      <c r="U8" s="116"/>
-      <c r="V8" s="117"/>
-      <c r="W8" s="65">
+      <c r="U8" s="85"/>
+      <c r="V8" s="86"/>
+      <c r="W8" s="70">
         <v>0</v>
       </c>
-      <c r="X8" s="65">
+      <c r="X8" s="70">
         <v>1</v>
       </c>
-      <c r="Y8" s="65">
+      <c r="Y8" s="70">
         <v>2</v>
       </c>
-      <c r="Z8" s="65" t="s">
+      <c r="Z8" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="AA8" s="65" t="s">
+      <c r="AA8" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="AB8" s="65" t="s">
+      <c r="AB8" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="AC8" s="65" t="s">
+      <c r="AC8" s="70" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="2:29" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="66"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="63"/>
+      <c r="B9" s="72"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="13" t="s">
         <v>24</v>
       </c>
@@ -2894,27 +2894,27 @@
       <c r="L9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="M9" s="112" t="s">
+      <c r="M9" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="113"/>
-      <c r="O9" s="114"/>
+      <c r="N9" s="62"/>
+      <c r="O9" s="63"/>
       <c r="P9" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="118"/>
-      <c r="U9" s="119"/>
-      <c r="V9" s="120"/>
-      <c r="W9" s="65"/>
-      <c r="X9" s="65"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="65"/>
-      <c r="AA9" s="65"/>
-      <c r="AB9" s="65"/>
-      <c r="AC9" s="65"/>
+      <c r="Q9" s="81"/>
+      <c r="R9" s="81"/>
+      <c r="S9" s="81"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="88"/>
+      <c r="V9" s="89"/>
+      <c r="W9" s="70"/>
+      <c r="X9" s="70"/>
+      <c r="Y9" s="70"/>
+      <c r="Z9" s="70"/>
+      <c r="AA9" s="70"/>
+      <c r="AB9" s="70"/>
+      <c r="AC9" s="70"/>
     </row>
     <row r="10" spans="2:29" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
@@ -2946,20 +2946,20 @@
       <c r="L10" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="M10" s="121" t="s">
+      <c r="M10" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="N10" s="122"/>
-      <c r="O10" s="123"/>
+      <c r="N10" s="68"/>
+      <c r="O10" s="69"/>
       <c r="P10" s="17"/>
       <c r="Q10" s="18" t="s">
         <v>100</v>
       </c>
       <c r="R10" s="18"/>
       <c r="S10" s="18"/>
-      <c r="T10" s="124"/>
-      <c r="U10" s="125"/>
-      <c r="V10" s="126"/>
+      <c r="T10" s="64"/>
+      <c r="U10" s="65"/>
+      <c r="V10" s="66"/>
       <c r="W10" s="19"/>
       <c r="X10" s="19" t="s">
         <v>100</v>
@@ -3002,9 +3002,9 @@
       <c r="L11" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="M11" s="121"/>
-      <c r="N11" s="122"/>
-      <c r="O11" s="123"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="68"/>
+      <c r="O11" s="69"/>
       <c r="P11" s="17" t="s">
         <v>100</v>
       </c>
@@ -3013,9 +3013,9 @@
         <v>100</v>
       </c>
       <c r="S11" s="18"/>
-      <c r="T11" s="124"/>
-      <c r="U11" s="125"/>
-      <c r="V11" s="126"/>
+      <c r="T11" s="64"/>
+      <c r="U11" s="65"/>
+      <c r="V11" s="66"/>
       <c r="W11" s="19"/>
       <c r="X11" s="19" t="s">
         <v>100</v>
@@ -3032,10 +3032,10 @@
       <c r="B12" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="C12" s="127" t="s">
+      <c r="C12" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="D12" s="127" t="s">
+      <c r="D12" s="41" t="s">
         <v>97</v>
       </c>
       <c r="E12" s="20" t="s">
@@ -3054,18 +3054,18 @@
       <c r="J12" s="17"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="122"/>
-      <c r="O12" s="123"/>
+      <c r="M12" s="67"/>
+      <c r="N12" s="68"/>
+      <c r="O12" s="69"/>
       <c r="P12" s="17"/>
       <c r="Q12" s="18"/>
       <c r="R12" s="18"/>
       <c r="S12" s="18" t="s">
         <v>100</v>
       </c>
-      <c r="T12" s="124"/>
-      <c r="U12" s="125"/>
-      <c r="V12" s="126"/>
+      <c r="T12" s="64"/>
+      <c r="U12" s="65"/>
+      <c r="V12" s="66"/>
       <c r="W12" s="19"/>
       <c r="X12" s="19"/>
       <c r="Y12" s="19"/>
@@ -3098,18 +3098,18 @@
       <c r="J13" s="17"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
-      <c r="M13" s="121"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="123"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="69"/>
       <c r="P13" s="17"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
       <c r="S13" s="18"/>
-      <c r="T13" s="124" t="s">
+      <c r="T13" s="64" t="s">
         <v>100</v>
       </c>
-      <c r="U13" s="125"/>
-      <c r="V13" s="126"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="66"/>
       <c r="W13" s="19"/>
       <c r="X13" s="19"/>
       <c r="Y13" s="19"/>
@@ -3148,11 +3148,11 @@
       <c r="L14" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="M14" s="121" t="s">
+      <c r="M14" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="N14" s="122"/>
-      <c r="O14" s="123"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="69"/>
       <c r="P14" s="17" t="s">
         <v>100</v>
       </c>
@@ -3163,9 +3163,9 @@
         <v>100</v>
       </c>
       <c r="S14" s="18"/>
-      <c r="T14" s="124"/>
-      <c r="U14" s="125"/>
-      <c r="V14" s="126"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="66"/>
       <c r="W14" s="19"/>
       <c r="X14" s="19"/>
       <c r="Y14" s="19" t="s">
@@ -3190,16 +3190,16 @@
       <c r="J15" s="17"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
-      <c r="M15" s="112"/>
-      <c r="N15" s="113"/>
-      <c r="O15" s="114"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="62"/>
+      <c r="O15" s="63"/>
       <c r="P15" s="17"/>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
       <c r="S15" s="18"/>
-      <c r="T15" s="124"/>
-      <c r="U15" s="125"/>
-      <c r="V15" s="126"/>
+      <c r="T15" s="64"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="66"/>
       <c r="W15" s="19"/>
       <c r="X15" s="19"/>
       <c r="Y15" s="19"/>
@@ -3213,20 +3213,17 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="T12:V12"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="T14:V14"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="T10:V10"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="X8:X9"/>
+    <mergeCell ref="Y8:Y9"/>
+    <mergeCell ref="AB8:AB9"/>
+    <mergeCell ref="M8:P8"/>
+    <mergeCell ref="Q8:Q9"/>
+    <mergeCell ref="R8:R9"/>
+    <mergeCell ref="S8:S9"/>
+    <mergeCell ref="T8:V9"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="B6:B9"/>
@@ -3243,17 +3240,20 @@
     <mergeCell ref="K8:L8"/>
     <mergeCell ref="Z8:Z9"/>
     <mergeCell ref="AA8:AA9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="W8:W9"/>
-    <mergeCell ref="X8:X9"/>
-    <mergeCell ref="Y8:Y9"/>
-    <mergeCell ref="AB8:AB9"/>
-    <mergeCell ref="M8:P8"/>
-    <mergeCell ref="Q8:Q9"/>
-    <mergeCell ref="R8:R9"/>
-    <mergeCell ref="S8:S9"/>
-    <mergeCell ref="T8:V9"/>
-    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="T10:V10"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="T12:V12"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="T14:V14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3288,65 +3288,65 @@
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="12"/>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="90" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
-      <c r="L3" s="94"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
     </row>
     <row r="4" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="101" t="s">
+      <c r="D4" s="102" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="93" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="99"/>
       <c r="G4" s="99"/>
       <c r="H4" s="99"/>
       <c r="I4" s="99"/>
-      <c r="J4" s="89"/>
-      <c r="K4" s="88" t="s">
+      <c r="J4" s="94"/>
+      <c r="K4" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="89"/>
+      <c r="L4" s="94"/>
     </row>
     <row r="5" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="96"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="102"/>
-      <c r="E5" s="90" t="s">
+      <c r="B5" s="92"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="103"/>
+      <c r="E5" s="95" t="s">
         <v>89</v>
       </c>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="90" t="s">
+      <c r="F5" s="104"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="96"/>
+      <c r="I5" s="95" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="91"/>
+      <c r="J5" s="96"/>
       <c r="K5" s="2" t="s">
         <v>4</v>
       </c>
@@ -3364,16 +3364,16 @@
       <c r="D6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="130" t="s">
+      <c r="E6" s="105" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="132"/>
-      <c r="I6" s="86" t="s">
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="108" t="s">
         <v>97</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="109"/>
       <c r="K6" s="23" t="s">
         <v>115</v>
       </c>
@@ -3389,16 +3389,16 @@
       <c r="D7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="88" t="s">
+      <c r="E7" s="93" t="s">
         <v>96</v>
       </c>
       <c r="F7" s="99"/>
       <c r="G7" s="99"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="88" t="s">
+      <c r="H7" s="94"/>
+      <c r="I7" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="89"/>
+      <c r="J7" s="94"/>
       <c r="K7" s="22" t="s">
         <v>115</v>
       </c>
@@ -3414,16 +3414,16 @@
       <c r="D8" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="88" t="s">
+      <c r="E8" s="93" t="s">
         <v>105</v>
       </c>
       <c r="F8" s="99"/>
       <c r="G8" s="99"/>
-      <c r="H8" s="89"/>
-      <c r="I8" s="88" t="s">
+      <c r="H8" s="94"/>
+      <c r="I8" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="J8" s="89"/>
+      <c r="J8" s="94"/>
       <c r="K8" s="22" t="s">
         <v>116</v>
       </c>
@@ -3439,16 +3439,16 @@
       <c r="D9" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="93" t="s">
         <v>108</v>
       </c>
       <c r="F9" s="99"/>
       <c r="G9" s="99"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="88" t="s">
+      <c r="H9" s="94"/>
+      <c r="I9" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="J9" s="89"/>
+      <c r="J9" s="94"/>
       <c r="K9" s="22" t="s">
         <v>116</v>
       </c>
@@ -3464,16 +3464,16 @@
       <c r="D10" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="90" t="s">
+      <c r="E10" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="90" t="s">
+      <c r="F10" s="104"/>
+      <c r="G10" s="104"/>
+      <c r="H10" s="96"/>
+      <c r="I10" s="95" t="s">
         <v>97</v>
       </c>
-      <c r="J10" s="91"/>
+      <c r="J10" s="96"/>
       <c r="K10" s="2" t="s">
         <v>115</v>
       </c>
@@ -3501,83 +3501,83 @@
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="2:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="103" t="s">
+      <c r="B13" s="112" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="105" t="s">
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="131" t="s">
         <v>66</v>
       </c>
-      <c r="G13" s="106"/>
-      <c r="H13" s="103" t="s">
+      <c r="G13" s="132"/>
+      <c r="H13" s="112" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="104"/>
-      <c r="J13" s="104"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="73" t="s">
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+      <c r="K13" s="113"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="N13" s="74"/>
+      <c r="N13" s="120"/>
     </row>
     <row r="14" spans="2:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="118" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="122" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="80" t="s">
+      <c r="F14" s="124" t="s">
         <v>70</v>
       </c>
-      <c r="G14" s="82" t="s">
+      <c r="G14" s="126" t="s">
         <v>71</v>
       </c>
-      <c r="H14" s="84" t="s">
+      <c r="H14" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="I14" s="76" t="s">
+      <c r="I14" s="110" t="s">
         <v>41</v>
       </c>
-      <c r="J14" s="76" t="s">
+      <c r="J14" s="110" t="s">
         <v>42</v>
       </c>
-      <c r="K14" s="92" t="s">
+      <c r="K14" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="L14" s="69" t="s">
+      <c r="L14" s="115" t="s">
         <v>73</v>
       </c>
-      <c r="M14" s="71" t="s">
+      <c r="M14" s="117" t="s">
         <v>74</v>
       </c>
-      <c r="N14" s="83" t="s">
+      <c r="N14" s="100" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="75"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="85"/>
-      <c r="I15" s="77"/>
-      <c r="J15" s="77"/>
-      <c r="K15" s="93"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="72"/>
-      <c r="N15" s="80"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="111"/>
+      <c r="D15" s="111"/>
+      <c r="E15" s="123"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
+      <c r="K15" s="130"/>
+      <c r="L15" s="116"/>
+      <c r="M15" s="118"/>
+      <c r="N15" s="124"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="28">
@@ -3625,6 +3625,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="H13:L13"/>
+    <mergeCell ref="L14:L15"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="B3:L3"/>
     <mergeCell ref="B4:B5"/>
@@ -3641,27 +3662,6 @@
     <mergeCell ref="E8:H8"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="H13:L13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="F13:G13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3669,21 +3669,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F5F472198D7887469049920058585067" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5e76e8f6ca957e849a493f1baa4f4bb7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c46c0853-0d59-45c6-b517-3e25eac8cdf1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6ddeb00cc2097713d6f56fe4f26be38f" ns2:_="">
     <xsd:import namespace="c46c0853-0d59-45c6-b517-3e25eac8cdf1"/>
@@ -3827,24 +3812,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9E53DB3A-2750-466D-B803-7A1FAB16D24B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3860,4 +3843,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CFB6F214-3FD3-47D7-BFB6-77D735E8F784}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC4FB184-C14D-4C2C-BD91-7F8240B2478B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>